--- a/知識點鏈結/三角函數知識點鏈結.xlsx
+++ b/知識點鏈結/三角函數知識點鏈結.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="45">
   <si>
     <t>學習階段</t>
   </si>
@@ -258,7 +258,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -294,59 +294,23 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -630,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K53" sqref="K42:K53"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.45" x14ac:dyDescent="0.4"/>
@@ -639,7 +603,7 @@
     <col min="1" max="1" width="33.4140625" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
     <col min="3" max="3" width="46.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.4140625" style="6" customWidth="1"/>
+    <col min="4" max="4" width="15.4140625" style="3" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.4">
@@ -654,7 +618,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="16.75" x14ac:dyDescent="0.4">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="5" t="s">
         <v>44</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -663,10 +627,12 @@
       <c r="C2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="7"/>
+      <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="15.45" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="9"/>
+      <c r="A3" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
       </c>
@@ -675,7 +641,9 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="9"/>
+      <c r="A4" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
@@ -684,7 +652,9 @@
       </c>
     </row>
     <row r="5" spans="1:4" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="9"/>
+      <c r="A5" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>7</v>
       </c>
@@ -693,7 +663,9 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A6" s="10"/>
+      <c r="A6" s="5" t="s">
+        <v>44</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>9</v>
       </c>
@@ -701,8 +673,8 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="30" x14ac:dyDescent="0.4">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
@@ -713,7 +685,9 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A8" s="4"/>
+      <c r="A8" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -722,7 +696,9 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A9" s="4"/>
+      <c r="A9" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -730,8 +706,10 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.4">
-      <c r="A10" s="4"/>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.4">
+      <c r="A10" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B10" s="2" t="s">
         <v>13</v>
       </c>
@@ -740,7 +718,9 @@
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A11" s="4"/>
+      <c r="A11" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
@@ -749,7 +729,9 @@
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A12" s="5"/>
+      <c r="A12" s="6" t="s">
+        <v>11</v>
+      </c>
       <c r="B12" s="2" t="s">
         <v>14</v>
       </c>
@@ -758,7 +740,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="6" t="s">
         <v>18</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -769,7 +751,9 @@
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A14" s="4"/>
+      <c r="A14" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="B14" s="2" t="s">
         <v>19</v>
       </c>
@@ -778,7 +762,9 @@
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A15" s="4"/>
+      <c r="A15" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="B15" s="2" t="s">
         <v>6</v>
       </c>
@@ -787,7 +773,9 @@
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.4">
-      <c r="A16" s="4"/>
+      <c r="A16" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="B16" s="2" t="s">
         <v>6</v>
       </c>
@@ -796,7 +784,9 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17" s="4"/>
+      <c r="A17" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="B17" s="2" t="s">
         <v>21</v>
       </c>
@@ -805,7 +795,9 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18" s="5"/>
+      <c r="A18" s="6" t="s">
+        <v>18</v>
+      </c>
       <c r="B18" s="2" t="s">
         <v>22</v>
       </c>
@@ -814,7 +806,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -825,7 +817,9 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20" s="4"/>
+      <c r="A20" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B20" s="2" t="s">
         <v>25</v>
       </c>
@@ -834,7 +828,9 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21" s="4"/>
+      <c r="A21" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B21" s="2" t="s">
         <v>26</v>
       </c>
@@ -843,7 +839,9 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22" s="5"/>
+      <c r="A22" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="B22" s="2" t="s">
         <v>27</v>
       </c>
@@ -852,7 +850,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -863,7 +861,9 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24" s="4"/>
+      <c r="A24" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B24" s="2" t="s">
         <v>6</v>
       </c>
@@ -872,7 +872,9 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25" s="4"/>
+      <c r="A25" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B25" s="2" t="s">
         <v>30</v>
       </c>
@@ -881,7 +883,9 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A26" s="4"/>
+      <c r="A26" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B26" s="2" t="s">
         <v>30</v>
       </c>
@@ -890,7 +894,9 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A27" s="5"/>
+      <c r="A27" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="B27" s="2" t="s">
         <v>32</v>
       </c>
@@ -899,7 +905,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B28" s="2" t="s">
@@ -910,7 +916,9 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A29" s="4"/>
+      <c r="A29" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="B29" s="2" t="s">
         <v>26</v>
       </c>
@@ -919,7 +927,9 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A30" s="4"/>
+      <c r="A30" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
@@ -928,7 +938,9 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A31" s="4"/>
+      <c r="A31" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="B31" s="2" t="s">
         <v>36</v>
       </c>
@@ -937,7 +949,9 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A32" s="5"/>
+      <c r="A32" s="6" t="s">
+        <v>34</v>
+      </c>
       <c r="B32" s="2" t="s">
         <v>37</v>
       </c>
@@ -946,7 +960,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="6" t="s">
         <v>39</v>
       </c>
       <c r="B33" s="2" t="s">
@@ -957,7 +971,9 @@
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A34" s="4"/>
+      <c r="A34" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B34" s="2" t="s">
         <v>9</v>
       </c>
@@ -966,7 +982,9 @@
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A35" s="4"/>
+      <c r="A35" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B35" s="2" t="s">
         <v>8</v>
       </c>
@@ -975,7 +993,9 @@
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A36" s="5"/>
+      <c r="A36" s="6" t="s">
+        <v>39</v>
+      </c>
       <c r="B36" s="2" t="s">
         <v>41</v>
       </c>
@@ -984,15 +1004,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="A33:A36"/>
-    <mergeCell ref="A2:A6"/>
-    <mergeCell ref="A7:A12"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A23:A27"/>
-    <mergeCell ref="A28:A32"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
